--- a/biology/Botanique/Sida_(plante)/Sida_(plante).xlsx
+++ b/biology/Botanique/Sida_(plante)/Sida_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sida est un genre de plantes dicotylédones de la famille des Malvaceae, sous-famille des Malvoideae, à répartition pantropicale, qui comprend environ 150 espèces acceptées.
-Ce sont des plantes herbacées annuelles ou vivaces, des arbrisseaux ou des arbustes pouvant atteindre 2 mètres de haut, aux feuilles simples alternes et aux fleurs généralement jaunes à 5 pétales connés à la base. Les fruits sont des schizocarpes dont les segments sont munis d'une ou deux arêtes apicales aiguës. Plusieurs espèces sont utilisées comme source de fibres[2].
+Ce sont des plantes herbacées annuelles ou vivaces, des arbrisseaux ou des arbustes pouvant atteindre 2 mètres de haut, aux feuilles simples alternes et aux fleurs généralement jaunes à 5 pétales connés à la base. Les fruits sont des schizocarpes dont les segments sont munis d'une ou deux arêtes apicales aiguës. Plusieurs espèces sont utilisées comme source de fibres.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (21 août 2019)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (21 août 2019) :
 Sida abutifolia Mill.
 Sida abutilifolia Mill.
 Sida acuta Burm.f.
